--- a/Ground Truth and Results/agra_big.xlsx
+++ b/Ground Truth and Results/agra_big.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhinav\Documents\Semester_7\BTP - 1\Ground truth\big\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhinav\Documents\Semester_7\BTP - 1\BTP\Ground Truth and Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD74219-5527-47A4-B0E4-86455AD59122}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0381F00-F34B-4D17-9A62-1FB401F959E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="94">
   <si>
     <t>Date</t>
   </si>
@@ -291,9 +291,6 @@
     <t>agra blasts</t>
   </si>
   <si>
-    <t>Satellite</t>
-  </si>
-  <si>
     <t>"YES" COUNT</t>
   </si>
   <si>
@@ -301,6 +298,12 @@
   </si>
   <si>
     <t>Useful</t>
+  </si>
+  <si>
+    <t>2012-05, 2014-08</t>
+  </si>
+  <si>
+    <t>2013-02, 2014-02, 2015-02, 2016-02, 2017-02, 2018-02</t>
   </si>
 </sst>
 </file>
@@ -2183,8 +2186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3007,17 +3010,20 @@
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I39" sqref="I39"/>
+      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="14.7" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="56" customWidth="1"/>
     <col min="2" max="2" width="15.21875" customWidth="1"/>
-    <col min="3" max="256" width="16.33203125" customWidth="1"/>
+    <col min="3" max="7" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" customWidth="1"/>
+    <col min="11" max="254" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
@@ -3040,13 +3046,10 @@
         <v>66</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" s="29" t="s">
-        <v>92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3071,12 +3074,10 @@
       <c r="G2" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="30" t="s">
-        <v>59</v>
-      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="33"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="40" t="s">
@@ -3100,12 +3101,10 @@
       <c r="G3" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="30" t="s">
-        <v>59</v>
-      </c>
+      <c r="H3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="36"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="40" t="s">
@@ -3129,12 +3128,10 @@
       <c r="G4" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="30" t="s">
-        <v>59</v>
-      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="33"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
@@ -3158,12 +3155,10 @@
       <c r="G5" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="I5" s="30" t="s">
-        <v>58</v>
-      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="36"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="45" t="s">
@@ -3187,12 +3182,10 @@
       <c r="G6" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" s="30" t="s">
-        <v>58</v>
-      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="33"/>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="40" t="s">
@@ -3214,14 +3207,12 @@
         <v>70</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" s="30" t="s">
-        <v>59</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="36"/>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="40" t="s">
@@ -3245,12 +3236,10 @@
       <c r="G8" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="I8" s="30" t="s">
-        <v>58</v>
-      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="33"/>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="45" t="s">
@@ -3274,12 +3263,10 @@
       <c r="G9" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="30" t="s">
-        <v>58</v>
-      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="45" t="s">
@@ -3303,12 +3290,10 @@
       <c r="G10" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="30" t="s">
-        <v>58</v>
-      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="33"/>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="40" t="s">
@@ -3330,14 +3315,12 @@
         <v>70</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="I11" s="30" t="s">
-        <v>59</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="36"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="45" t="s">
@@ -3361,12 +3344,10 @@
       <c r="G12" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="I12" s="30" t="s">
-        <v>59</v>
-      </c>
+      <c r="H12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" s="33"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="40" t="s">
@@ -3390,12 +3371,10 @@
       <c r="G13" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="I13" s="30" t="s">
-        <v>59</v>
-      </c>
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="45" t="s">
@@ -3419,12 +3398,10 @@
       <c r="G14" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="I14" s="30" t="s">
-        <v>58</v>
-      </c>
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="33"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="45" t="s">
@@ -3448,12 +3425,10 @@
       <c r="G15" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="H15" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="I15" s="30" t="s">
-        <v>58</v>
-      </c>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="40" t="s">
@@ -3477,12 +3452,10 @@
       <c r="G16" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="H16" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="I16" s="30" t="s">
-        <v>59</v>
-      </c>
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="33"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="45" t="s">
@@ -3506,12 +3479,10 @@
       <c r="G17" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="I17" s="30" t="s">
-        <v>58</v>
-      </c>
+      <c r="H17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="36"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="45" t="s">
@@ -3533,14 +3504,12 @@
         <v>68</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="I18" s="30" t="s">
-        <v>59</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="H18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="33"/>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="40" t="s">
@@ -3564,12 +3533,10 @@
       <c r="G19" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="I19" s="30" t="s">
-        <v>58</v>
-      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="36"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="45" t="s">
@@ -3593,12 +3560,10 @@
       <c r="G20" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="H20" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="I20" s="30" t="s">
-        <v>58</v>
-      </c>
+      <c r="H20" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="33"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="40" t="s">
@@ -3622,12 +3587,10 @@
       <c r="G21" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="H21" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="I21" s="30" t="s">
-        <v>59</v>
-      </c>
+      <c r="H21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="36"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="40" t="s">
@@ -3649,14 +3612,12 @@
         <v>73</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="H22" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="I22" s="30" t="s">
-        <v>59</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="H22" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" s="33"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="40" t="s">
@@ -3680,12 +3641,10 @@
       <c r="G23" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="H23" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="I23" s="30" t="s">
-        <v>58</v>
-      </c>
+      <c r="H23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" s="36"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="45" t="s">
@@ -3707,14 +3666,12 @@
         <v>68</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="H24" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="I24" s="30" t="s">
-        <v>59</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="H24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24" s="33"/>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="45" t="s">
@@ -3738,12 +3695,10 @@
       <c r="G25" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="H25" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="I25" s="30" t="s">
-        <v>58</v>
-      </c>
+      <c r="H25" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" s="36"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="40" t="s">
@@ -3767,12 +3722,10 @@
       <c r="G26" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="H26" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="I26" s="30" t="s">
-        <v>58</v>
-      </c>
+      <c r="H26" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" s="33"/>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="45" t="s">
@@ -3794,14 +3747,12 @@
         <v>70</v>
       </c>
       <c r="G27" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="I27" s="30" t="s">
-        <v>59</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="H27" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" s="36"/>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="45" t="s">
@@ -3825,12 +3776,10 @@
       <c r="G28" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="H28" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="I28" s="30" t="s">
-        <v>58</v>
-      </c>
+      <c r="H28" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" s="33"/>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="45" t="s">
@@ -3854,12 +3803,10 @@
       <c r="G29" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="H29" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="I29" s="30" t="s">
-        <v>58</v>
-      </c>
+      <c r="H29" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29" s="36"/>
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="40" t="s">
@@ -3883,11 +3830,8 @@
       <c r="G30" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="H30" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="I30" s="30" t="s">
-        <v>58</v>
+      <c r="H30" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3912,11 +3856,8 @@
       <c r="G31" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="H31" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="I31" s="30" t="s">
-        <v>58</v>
+      <c r="H31" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3941,14 +3882,11 @@
       <c r="G32" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="H32" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="I32" s="30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="40" t="s">
         <v>88</v>
       </c>
@@ -3970,14 +3908,11 @@
       <c r="G33" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="H33" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="I33" s="30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="45" t="s">
         <v>53</v>
       </c>
@@ -3999,14 +3934,11 @@
       <c r="G34" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="H34" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="I34" s="30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="40" t="s">
         <v>55</v>
       </c>
@@ -4028,23 +3960,20 @@
       <c r="G35" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="H35" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="I35" s="30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B36" s="32">
         <f>COUNTIF(B2:B35,"YES")</f>
         <v>11</v>
       </c>
       <c r="C36" s="32">
-        <f t="shared" ref="C36:H36" si="0">COUNTIF(C2:C35,"YES")</f>
+        <f t="shared" ref="C36:F36" si="0">COUNTIF(C2:C35,"YES")</f>
         <v>17</v>
       </c>
       <c r="D36" s="32">
@@ -4059,25 +3988,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G36" s="32">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="H36" s="32">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:8" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B37" s="32">
         <f>COUNTIF(B2:B35,"NO")</f>
         <v>23</v>
       </c>
       <c r="C37" s="32">
-        <f t="shared" ref="C37:H37" si="1">COUNTIF(C2:C35,"NO")</f>
+        <f t="shared" ref="C37:F37" si="1">COUNTIF(C2:C35,"NO")</f>
         <v>17</v>
       </c>
       <c r="D37" s="32">
@@ -4092,74 +4013,62 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G37" s="32">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="H37" s="32">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-    </row>
-    <row r="39" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:8" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="33"/>
       <c r="B39" s="34"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
     </row>
-    <row r="40" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="36"/>
       <c r="B40" s="37"/>
       <c r="C40" s="34"/>
       <c r="D40" s="35"/>
     </row>
-    <row r="41" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="33"/>
       <c r="B41" s="34"/>
       <c r="C41" s="34"/>
       <c r="D41" s="35"/>
     </row>
-    <row r="42" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="36"/>
       <c r="B42" s="37"/>
       <c r="C42" s="34"/>
       <c r="D42" s="35"/>
     </row>
-    <row r="43" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="33"/>
       <c r="B43" s="34"/>
       <c r="C43" s="34"/>
       <c r="D43" s="35"/>
     </row>
-    <row r="44" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="36"/>
       <c r="B44" s="37"/>
       <c r="C44" s="34"/>
       <c r="D44" s="35"/>
     </row>
-    <row r="45" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="33"/>
       <c r="B45" s="34"/>
       <c r="C45" s="34"/>
       <c r="D45" s="35"/>
     </row>
-    <row r="46" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="36"/>
       <c r="B46" s="37"/>
       <c r="C46" s="34"/>
       <c r="D46" s="35"/>
     </row>
-    <row r="47" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="33"/>
       <c r="B47" s="34"/>
       <c r="C47" s="34"/>
       <c r="D47" s="35"/>
     </row>
-    <row r="48" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="36"/>
       <c r="B48" s="37"/>
       <c r="C48" s="34"/>
@@ -4274,27 +4183,22 @@
       <c r="D66" s="35"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G2:G35 G38">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="YES">
-      <formula>NOT(ISERROR(SEARCH("YES",G2)))</formula>
+  <conditionalFormatting sqref="A1:F35">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+      <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H35 G38:H38">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="YES">
-      <formula>NOT(ISERROR(SEARCH("YES",G2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:H35">
+  <conditionalFormatting sqref="H1">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I35">
+  <conditionalFormatting sqref="G2:G35">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="YES">
-      <formula>NOT(ISERROR(SEARCH("YES",I2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("YES",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I35">
+  <conditionalFormatting sqref="G1:G35">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
